--- a/src/dataLoggingTool/dataLogging.xlsx
+++ b/src/dataLoggingTool/dataLogging.xlsx
@@ -1,20 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView xWindow="390" yWindow="525" windowWidth="19815" windowHeight="7365"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Log" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="125725"/>
-</workbook>
+<s:workbook xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <s:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Log" sheetId="1" r:id="rId1"/>
+    <s:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Log2" sheetId="2" r:id="rId2"/>
+    <s:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Log3" sheetId="3" r:id="rId3"/>
+    <s:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Log4" sheetId="4" r:id="rId4"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
+</s:workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date: </t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 21:45:54 2016</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 21:56:45 2016</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 22:07:55 2016</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -42,16 +79,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -98,7 +135,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -130,9 +167,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -164,6 +202,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -339,13 +378,1219 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" width="9.1" customWidth="1" max="1"/>
+    <col min="2" width="9.1" customWidth="1" max="2"/>
+    <col min="3" width="9.1" customWidth="1" max="3"/>
+    <col min="4" width="9.1" customWidth="1" max="4"/>
+    <col min="5" width="9.1" customWidth="1" max="5"/>
+  </cols>
+  <sheetData>
+    <row spans="1:5" r="1">
+      <c t="s" r="A1">
+        <v>1</v>
+      </c>
+      <c t="s" r="B1">
+        <v>3</v>
+      </c>
+    </row>
+    <row spans="1:5" r="3">
+      <c t="s" r="A3">
+        <v>2</v>
+      </c>
+      <c t="s" r="B3">
+        <v>7</v>
+      </c>
+      <c t="s" r="C3">
+        <v>0</v>
+      </c>
+      <c t="s" r="D3">
+        <v>8</v>
+      </c>
+      <c t="s" r="E3">
+        <v>6</v>
+      </c>
+    </row>
+    <row spans="1:5" r="4">
+      <c t="n" r="A4">
+        <v>0.003000020980834961</v>
+      </c>
+      <c t="n" r="B4">
+        <v>235858628.79784492</v>
+      </c>
+      <c t="n" r="C4">
+        <v>0</v>
+      </c>
+      <c t="n" r="D4">
+        <v>35.0</v>
+      </c>
+      <c t="n" r="E4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="5">
+      <c t="n" r="A5">
+        <v>5.003000020980835</v>
+      </c>
+      <c t="n" r="B5">
+        <v>235855846.3681064</v>
+      </c>
+      <c t="n" r="C5">
+        <v>0</v>
+      </c>
+      <c t="n" r="D5">
+        <v>35.0</v>
+      </c>
+      <c t="n" r="E5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="6">
+      <c t="n" r="A6">
+        <v>10.003999948501587</v>
+      </c>
+      <c t="n" r="B6">
+        <v>235853064.51111597</v>
+      </c>
+      <c t="n" r="C6">
+        <v>0</v>
+      </c>
+      <c t="n" r="D6">
+        <v>35.0</v>
+      </c>
+      <c t="n" r="E6">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="7">
+      <c t="n" r="A7">
+        <v>15.003000020980835</v>
+      </c>
+      <c t="n" r="B7">
+        <v>235850282.670536</v>
+      </c>
+      <c t="n" r="C7">
+        <v>0</v>
+      </c>
+      <c t="n" r="D7">
+        <v>35.0</v>
+      </c>
+      <c t="n" r="E7">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="8">
+      <c t="n" r="A8">
+        <v>20.003000020980835</v>
+      </c>
+      <c t="n" r="B8">
+        <v>235847500.8463665</v>
+      </c>
+      <c t="n" r="C8">
+        <v>0</v>
+      </c>
+      <c t="n" r="D8">
+        <v>35.0</v>
+      </c>
+      <c t="n" r="E8">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="9">
+      <c t="n" r="A9">
+        <v>25.003000020980835</v>
+      </c>
+      <c t="n" r="B9">
+        <v>235844719.5949254</v>
+      </c>
+      <c t="n" r="C9">
+        <v>0</v>
+      </c>
+      <c t="n" r="D9">
+        <v>35.0</v>
+      </c>
+      <c t="n" r="E9">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="10">
+      <c t="n" r="A10">
+        <v>30.003000020980835</v>
+      </c>
+      <c t="n" r="B10">
+        <v>235841937.80357683</v>
+      </c>
+      <c t="n" r="C10">
+        <v>0</v>
+      </c>
+      <c t="n" r="D10">
+        <v>35.0</v>
+      </c>
+      <c t="n" r="E10">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="11">
+      <c t="n" r="A11">
+        <v>35.003000020980835</v>
+      </c>
+      <c t="n" r="B11">
+        <v>235839155.4723208</v>
+      </c>
+      <c t="n" r="C11">
+        <v>0</v>
+      </c>
+      <c t="n" r="D11">
+        <v>35.0</v>
+      </c>
+      <c t="n" r="E11">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="12">
+      <c t="n" r="A12">
+        <v>40.003000020980835</v>
+      </c>
+      <c t="n" r="B12">
+        <v>235836374.27010456</v>
+      </c>
+      <c t="n" r="C12">
+        <v>0</v>
+      </c>
+      <c t="n" r="D12">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E12">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="13">
+      <c t="n" r="A13">
+        <v>45.003000020980835</v>
+      </c>
+      <c t="n" r="B13">
+        <v>235833592.5279841</v>
+      </c>
+      <c t="n" r="C13">
+        <v>0</v>
+      </c>
+      <c t="n" r="D13">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E13">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="14">
+      <c t="n" r="A14">
+        <v>50.003000020980835</v>
+      </c>
+      <c t="n" r="B14">
+        <v>235830810.80227086</v>
+      </c>
+      <c t="n" r="C14">
+        <v>0</v>
+      </c>
+      <c t="n" r="D14">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E14">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="15">
+      <c t="n" r="A15">
+        <v>55.003000020980835</v>
+      </c>
+      <c t="n" r="B15">
+        <v>235828028.5366731</v>
+      </c>
+      <c t="n" r="C15">
+        <v>0</v>
+      </c>
+      <c t="n" r="D15">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E15">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="16">
+      <c t="n" r="A16">
+        <v>60.003000020980835</v>
+      </c>
+      <c t="n" r="B16">
+        <v>235825247.40008557</v>
+      </c>
+      <c t="n" r="C16">
+        <v>0</v>
+      </c>
+      <c t="n" r="D16">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E16">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="17">
+      <c t="n" r="A17">
+        <v>65.00200009346008</v>
+      </c>
+      <c t="n" r="B17">
+        <v>235822465.72360697</v>
+      </c>
+      <c t="n" r="C17">
+        <v>0</v>
+      </c>
+      <c t="n" r="D17">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E17">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="18">
+      <c t="n" r="A18">
+        <v>70.00399994850159</v>
+      </c>
+      <c t="n" r="B18">
+        <v>235819683.50724715</v>
+      </c>
+      <c t="n" r="C18">
+        <v>0</v>
+      </c>
+      <c t="n" r="D18">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E18">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="19">
+      <c t="n" r="A19">
+        <v>75.00300002098083</v>
+      </c>
+      <c t="n" r="B19">
+        <v>235816902.41987792</v>
+      </c>
+      <c t="n" r="C19">
+        <v>0</v>
+      </c>
+      <c t="n" r="D19">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E19">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="20">
+      <c t="n" r="A20">
+        <v>80.00300002098083</v>
+      </c>
+      <c t="n" r="B20">
+        <v>235814120.23634887</v>
+      </c>
+      <c t="n" r="C20">
+        <v>0</v>
+      </c>
+      <c t="n" r="D20">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E20">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="21">
+      <c t="n" r="A21">
+        <v>85.00399994850159</v>
+      </c>
+      <c t="n" r="B21">
+        <v>235811338.62551215</v>
+      </c>
+      <c t="n" r="C21">
+        <v>0</v>
+      </c>
+      <c t="n" r="D21">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E21">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="22">
+      <c t="n" r="A22">
+        <v>90.00399994850159</v>
+      </c>
+      <c t="n" r="B22">
+        <v>235808557.03109246</v>
+      </c>
+      <c t="n" r="C22">
+        <v>0</v>
+      </c>
+      <c t="n" r="D22">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E22">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="23">
+      <c t="n" r="A23">
+        <v>95.00399994850159</v>
+      </c>
+      <c t="n" r="B23">
+        <v>235805775.45307997</v>
+      </c>
+      <c t="n" r="C23">
+        <v>0</v>
+      </c>
+      <c t="n" r="D23">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E23">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="24">
+      <c t="n" r="A24">
+        <v>100.00300002098083</v>
+      </c>
+      <c t="n" r="B24">
+        <v>235802994.44774663</v>
+      </c>
+      <c t="n" r="C24">
+        <v>0</v>
+      </c>
+      <c t="n" r="D24">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E24">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="25">
+      <c t="n" r="A25">
+        <v>105.00399994850159</v>
+      </c>
+      <c t="n" r="B25">
+        <v>235800212.34628305</v>
+      </c>
+      <c t="n" r="C25">
+        <v>0</v>
+      </c>
+      <c t="n" r="D25">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E25">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="26">
+      <c t="n" r="A26">
+        <v>110.00300002098083</v>
+      </c>
+      <c t="n" r="B26">
+        <v>235797430.8175052</v>
+      </c>
+      <c t="n" r="C26">
+        <v>0</v>
+      </c>
+      <c t="n" r="D26">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E26">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="27">
+      <c t="n" r="A27">
+        <v>115.00399994850159</v>
+      </c>
+      <c t="n" r="B27">
+        <v>235794649.30513453</v>
+      </c>
+      <c t="n" r="C27">
+        <v>0</v>
+      </c>
+      <c t="n" r="D27">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E27">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="28">
+      <c t="n" r="A28">
+        <v>120.00399994850159</v>
+      </c>
+      <c t="n" r="B28">
+        <v>235791867.80917108</v>
+      </c>
+      <c t="n" r="C28">
+        <v>0</v>
+      </c>
+      <c t="n" r="D28">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E28">
+        <v>0.35</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" width="9.1" customWidth="1" max="1"/>
+    <col min="2" width="9.1" customWidth="1" max="2"/>
+    <col min="3" width="9.1" customWidth="1" max="3"/>
+    <col min="4" width="9.1" customWidth="1" max="4"/>
+    <col min="5" width="9.1" customWidth="1" max="5"/>
+  </cols>
+  <sheetData>
+    <row spans="1:5" r="1">
+      <c t="s" r="A1">
+        <v>1</v>
+      </c>
+      <c t="s" r="B1">
+        <v>4</v>
+      </c>
+    </row>
+    <row spans="1:5" r="3">
+      <c t="s" r="A3">
+        <v>2</v>
+      </c>
+      <c t="s" r="B3">
+        <v>7</v>
+      </c>
+      <c t="s" r="C3">
+        <v>0</v>
+      </c>
+      <c t="s" r="D3">
+        <v>8</v>
+      </c>
+      <c t="s" r="E3">
+        <v>6</v>
+      </c>
+    </row>
+    <row spans="1:5" r="4">
+      <c t="n" r="A4">
+        <v>0.003000020980834961</v>
+      </c>
+      <c t="n" r="B4">
+        <v>0.0</v>
+      </c>
+      <c t="n" r="C4">
+        <v>0</v>
+      </c>
+      <c t="n" r="D4">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="5">
+      <c t="n" r="A5">
+        <v>5.003999948501587</v>
+      </c>
+      <c t="n" r="B5">
+        <v>0.8093624847437687</v>
+      </c>
+      <c t="n" r="C5">
+        <v>0</v>
+      </c>
+      <c t="n" r="D5">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="6">
+      <c t="n" r="A6">
+        <v>10.003999948501587</v>
+      </c>
+      <c t="n" r="B6">
+        <v>1.4578836696456714</v>
+      </c>
+      <c t="n" r="C6">
+        <v>0</v>
+      </c>
+      <c t="n" r="D6">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E6">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="7">
+      <c t="n" r="A7">
+        <v>15.003999948501587</v>
+      </c>
+      <c t="n" r="B7">
+        <v>2.05064020256543</v>
+      </c>
+      <c t="n" r="C7">
+        <v>0</v>
+      </c>
+      <c t="n" r="D7">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E7">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="8">
+      <c t="n" r="A8">
+        <v>20.003000020980835</v>
+      </c>
+      <c t="n" r="B8">
+        <v>2.602596401833271</v>
+      </c>
+      <c t="n" r="C8">
+        <v>0</v>
+      </c>
+      <c t="n" r="D8">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E8">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="9">
+      <c t="n" r="A9">
+        <v>25.003000020980835</v>
+      </c>
+      <c t="n" r="B9">
+        <v>3.12182287925597</v>
+      </c>
+      <c t="n" r="C9">
+        <v>0</v>
+      </c>
+      <c t="n" r="D9">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E9">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="10">
+      <c t="n" r="A10">
+        <v>30.005000114440918</v>
+      </c>
+      <c t="n" r="B10">
+        <v>3.6134035971268723</v>
+      </c>
+      <c t="n" r="C10">
+        <v>0</v>
+      </c>
+      <c t="n" r="D10">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E10">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="11">
+      <c t="n" r="A11">
+        <v>35.00399994850159</v>
+      </c>
+      <c t="n" r="B11">
+        <v>4.080420101790786</v>
+      </c>
+      <c t="n" r="C11">
+        <v>0</v>
+      </c>
+      <c t="n" r="D11">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E11">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="12">
+      <c t="n" r="A12">
+        <v>40.00399994850159</v>
+      </c>
+      <c t="n" r="B12">
+        <v>4.525948822063892</v>
+      </c>
+      <c t="n" r="C12">
+        <v>0</v>
+      </c>
+      <c t="n" r="D12">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E12">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="13">
+      <c t="n" r="A13">
+        <v>45.003000020980835</v>
+      </c>
+      <c t="n" r="B13">
+        <v>4.951928572903603</v>
+      </c>
+      <c t="n" r="C13">
+        <v>0</v>
+      </c>
+      <c t="n" r="D13">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E13">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="14">
+      <c t="n" r="A14">
+        <v>50.00399994850159</v>
+      </c>
+      <c t="n" r="B14">
+        <v>5.360343128690589</v>
+      </c>
+      <c t="n" r="C14">
+        <v>0</v>
+      </c>
+      <c t="n" r="D14">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E14">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="15">
+      <c t="n" r="A15">
+        <v>55.00399994850159</v>
+      </c>
+      <c t="n" r="B15">
+        <v>5.752378340720617</v>
+      </c>
+      <c t="n" r="C15">
+        <v>0</v>
+      </c>
+      <c t="n" r="D15">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E15">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="16">
+      <c t="n" r="A16">
+        <v>60.003000020980835</v>
+      </c>
+      <c t="n" r="B16">
+        <v>6.1292686414245505</v>
+      </c>
+      <c t="n" r="C16">
+        <v>0</v>
+      </c>
+      <c t="n" r="D16">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E16">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="17">
+      <c t="n" r="A17">
+        <v>65.00500011444092</v>
+      </c>
+      <c t="n" r="B17">
+        <v>6.492363903572249</v>
+      </c>
+      <c t="n" r="C17">
+        <v>0</v>
+      </c>
+      <c t="n" r="D17">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E17">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="18">
+      <c t="n" r="A18">
+        <v>70.00500011444092</v>
+      </c>
+      <c t="n" r="B18">
+        <v>6.842221192948673</v>
+      </c>
+      <c t="n" r="C18">
+        <v>0</v>
+      </c>
+      <c t="n" r="D18">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E18">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="19">
+      <c t="n" r="A19">
+        <v>75.00300002098083</v>
+      </c>
+      <c t="n" r="B19">
+        <v>7.179737417024588</v>
+      </c>
+      <c t="n" r="C19">
+        <v>0</v>
+      </c>
+      <c t="n" r="D19">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E19">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="20">
+      <c t="n" r="A20">
+        <v>80.00300002098083</v>
+      </c>
+      <c t="n" r="B20">
+        <v>7.505707082231959</v>
+      </c>
+      <c t="n" r="C20">
+        <v>0</v>
+      </c>
+      <c t="n" r="D20">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E20">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="21">
+      <c t="n" r="A21">
+        <v>85.00300002098083</v>
+      </c>
+      <c t="n" r="B21">
+        <v>7.820845207280637</v>
+      </c>
+      <c t="n" r="C21">
+        <v>0</v>
+      </c>
+      <c t="n" r="D21">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E21">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="22">
+      <c t="n" r="A22">
+        <v>90.00300002098083</v>
+      </c>
+      <c t="n" r="B22">
+        <v>8.125665457475158</v>
+      </c>
+      <c t="n" r="C22">
+        <v>0</v>
+      </c>
+      <c t="n" r="D22">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E22">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="23">
+      <c t="n" r="A23">
+        <v>95.00300002098083</v>
+      </c>
+      <c t="n" r="B23">
+        <v>8.420707438542864</v>
+      </c>
+      <c t="n" r="C23">
+        <v>0</v>
+      </c>
+      <c t="n" r="D23">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E23">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="24">
+      <c t="n" r="A24">
+        <v>100.00300002098083</v>
+      </c>
+      <c t="n" r="B24">
+        <v>8.706513293033714</v>
+      </c>
+      <c t="n" r="C24">
+        <v>0</v>
+      </c>
+      <c t="n" r="D24">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E24">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="25">
+      <c t="n" r="A25">
+        <v>105.00399994850159</v>
+      </c>
+      <c t="n" r="B25">
+        <v>8.983413659718487</v>
+      </c>
+      <c t="n" r="C25">
+        <v>0</v>
+      </c>
+      <c t="n" r="D25">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E25">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="26">
+      <c t="n" r="A26">
+        <v>110.00300002098083</v>
+      </c>
+      <c t="n" r="B26">
+        <v>9.251825182476725</v>
+      </c>
+      <c t="n" r="C26">
+        <v>0</v>
+      </c>
+      <c t="n" r="D26">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E26">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="27">
+      <c t="n" r="A27">
+        <v>115.00399994850159</v>
+      </c>
+      <c t="n" r="B27">
+        <v>9.512286044189931</v>
+      </c>
+      <c t="n" r="C27">
+        <v>0</v>
+      </c>
+      <c t="n" r="D27">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E27">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="28">
+      <c t="n" r="A28">
+        <v>120.00300002098083</v>
+      </c>
+      <c t="n" r="B28">
+        <v>9.764942034522004</v>
+      </c>
+      <c t="n" r="C28">
+        <v>0</v>
+      </c>
+      <c t="n" r="D28">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E28">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="29">
+      <c t="n" r="A29">
+        <v>125.00099992752075</v>
+      </c>
+      <c t="n" r="B29">
+        <v>10.01017903473619</v>
+      </c>
+      <c t="n" r="C29">
+        <v>0</v>
+      </c>
+      <c t="n" r="D29">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E29">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="30">
+      <c t="n" r="A30">
+        <v>130.00099992752075</v>
+      </c>
+      <c t="n" r="B30">
+        <v>10.248448486340212</v>
+      </c>
+      <c t="n" r="C30">
+        <v>0</v>
+      </c>
+      <c t="n" r="D30">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E30">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="31">
+      <c t="n" r="A31">
+        <v>135.00099992752075</v>
+      </c>
+      <c t="n" r="B31">
+        <v>10.479936728202462</v>
+      </c>
+      <c t="n" r="C31">
+        <v>0</v>
+      </c>
+      <c t="n" r="D31">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E31">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="32">
+      <c t="n" r="A32">
+        <v>140.0</v>
+      </c>
+      <c t="n" r="B32">
+        <v>10.704908033420374</v>
+      </c>
+      <c t="n" r="C32">
+        <v>0</v>
+      </c>
+      <c t="n" r="D32">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E32">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="33">
+      <c t="n" r="A33">
+        <v>144.99900007247925</v>
+      </c>
+      <c t="n" r="B33">
+        <v>10.923531928799306</v>
+      </c>
+      <c t="n" r="C33">
+        <v>0</v>
+      </c>
+      <c t="n" r="D33">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E33">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="34">
+      <c t="n" r="A34">
+        <v>150.00099992752075</v>
+      </c>
+      <c t="n" r="B34">
+        <v>11.136301873218155</v>
+      </c>
+      <c t="n" r="C34">
+        <v>0</v>
+      </c>
+      <c t="n" r="D34">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E34">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="35">
+      <c t="n" r="A35">
+        <v>155.0</v>
+      </c>
+      <c t="n" r="B35">
+        <v>11.34314361010518</v>
+      </c>
+      <c t="n" r="C35">
+        <v>0</v>
+      </c>
+      <c t="n" r="D35">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E35">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="36">
+      <c t="n" r="A36">
+        <v>159.99900007247925</v>
+      </c>
+      <c t="n" r="B36">
+        <v>11.54439700228542</v>
+      </c>
+      <c t="n" r="C36">
+        <v>0</v>
+      </c>
+      <c t="n" r="D36">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E36">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="37">
+      <c t="n" r="A37">
+        <v>164.99799990653992</v>
+      </c>
+      <c t="n" r="B37">
+        <v>11.740261721585405</v>
+      </c>
+      <c t="n" r="C37">
+        <v>0</v>
+      </c>
+      <c t="n" r="D37">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E37">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="38">
+      <c t="n" r="A38">
+        <v>169.99699997901917</v>
+      </c>
+      <c t="n" r="B38">
+        <v>11.93096512608432</v>
+      </c>
+      <c t="n" r="C38">
+        <v>0</v>
+      </c>
+      <c t="n" r="D38">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E38">
+        <v>0.35</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" width="9.10" max="1"/>
+    <col min="2" width="9.10" max="2"/>
+    <col min="3" width="9.10" max="3"/>
+    <col min="4" width="9.10" max="4"/>
+    <col min="5" width="9.10" max="5"/>
+  </cols>
+  <sheetData>
+    <row spans="1:5" r="1">
+      <c t="s" r="A1">
+        <v>1</v>
+      </c>
+      <c t="s" r="B1">
+        <v>5</v>
+      </c>
+    </row>
+    <row spans="1:5" r="3">
+      <c t="s" r="A3">
+        <v>2</v>
+      </c>
+      <c t="s" r="B3">
+        <v>7</v>
+      </c>
+      <c t="s" r="C3">
+        <v>0</v>
+      </c>
+      <c t="s" r="D3">
+        <v>8</v>
+      </c>
+      <c t="s" r="E3">
+        <v>6</v>
+      </c>
+    </row>
+    <row spans="1:5" r="4">
+      <c t="n" r="A4">
+        <v>0.23100018501281738</v>
+      </c>
+      <c t="n" r="B4">
+        <v>0.00016233505830168721</v>
+      </c>
+      <c t="n" r="C4">
+        <v>0</v>
+      </c>
+      <c t="n" r="D4">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:5" r="5">
+      <c t="n" r="A5">
+        <v>5.231000185012817</v>
+      </c>
+      <c t="n" r="B5">
+        <v>0.7942924273362022</v>
+      </c>
+      <c t="n" r="C5">
+        <v>0</v>
+      </c>
+      <c t="n" r="D5">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E5">
+        <v>0.35</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
--- a/src/dataLoggingTool/dataLogging.xlsx
+++ b/src/dataLoggingTool/dataLogging.xlsx
@@ -27,9 +27,6 @@
     <t>I</t>
   </si>
   <si>
-    <t>Mon Jan 18 23:42:04 2016</t>
-  </si>
-  <si>
     <t>OP</t>
   </si>
   <si>
@@ -37,6 +34,9 @@
   </si>
   <si>
     <t>SP</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 21:58:55 2016</t>
   </si>
 </sst>
 </file>
@@ -95,39 +95,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,142 +206,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -367,7 +391,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -375,103 +399,205 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" width="9.10" max="1"/>
     <col min="2" width="9.10" max="2"/>
     <col min="3" width="9.10" max="3"/>
     <col min="4" width="9.10" max="4"/>
     <col min="5" width="9.10" max="5"/>
+    <col min="6" width="9.10" max="6"/>
   </cols>
   <sheetData>
-    <row spans="1:5" r="1">
-      <c t="s" r="A1">
+    <row spans="1:6" r="2">
+      <c t="s" r="B2">
         <v>1</v>
       </c>
-      <c t="s" r="B1">
+      <c t="s" r="C2">
+        <v>6</v>
+      </c>
+    </row>
+    <row spans="1:6" r="4">
+      <c t="s" r="B4">
+        <v>2</v>
+      </c>
+      <c t="s" r="C4">
+        <v>4</v>
+      </c>
+      <c t="s" r="D4">
+        <v>0</v>
+      </c>
+      <c t="s" r="E4">
+        <v>5</v>
+      </c>
+      <c t="s" r="F4">
         <v>3</v>
       </c>
     </row>
-    <row spans="1:5" r="3">
-      <c t="s" r="A3">
-        <v>2</v>
-      </c>
-      <c t="s" r="B3">
-        <v>5</v>
-      </c>
-      <c t="s" r="C3">
-        <v>0</v>
-      </c>
-      <c t="s" r="D3">
-        <v>6</v>
-      </c>
-      <c t="s" r="E3">
-        <v>4</v>
-      </c>
-    </row>
-    <row spans="1:5" r="4">
-      <c t="n" r="A4">
-        <v>0.2519998550415039</v>
-      </c>
-      <c t="n" r="B4">
-        <v>0.00016229636102914804</v>
-      </c>
-      <c t="n" r="C4">
-        <v>0</v>
-      </c>
-      <c t="n" r="D4">
-        <v>40.0</v>
-      </c>
-      <c t="n" r="E4">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row spans="1:5" r="5">
-      <c t="n" r="A5">
-        <v>5.253000020980835</v>
-      </c>
+    <row spans="1:6" r="5">
       <c t="n" r="B5">
-        <v>0.80419928036551191</v>
+        <v>0.009999990463256836</v>
       </c>
       <c t="n" r="C5">
-        <v>0</v>
+        <v>0.001623079702109098</v>
       </c>
       <c t="n" r="D5">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c t="n" r="E5">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row spans="1:5" r="6">
-      <c t="n" r="A6">
-        <v>10.251999855041504</v>
-      </c>
+        <v>40.0</v>
+      </c>
+      <c t="n" r="F5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:6" r="6">
       <c t="n" r="B6">
-        <v>1.4529936558417083</v>
+        <v>5.008999824523926</v>
       </c>
       <c t="n" r="C6">
-        <v>0</v>
+        <v>0.8057030783116591</v>
       </c>
       <c t="n" r="D6">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c t="n" r="E6">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row spans="1:5" r="7">
-      <c t="n" r="A7">
-        <v>15.250999927520752</v>
-      </c>
+        <v>40.0</v>
+      </c>
+      <c t="n" r="F6">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:6" r="7">
       <c t="n" r="B7">
-        <v>2.0459098480726179</v>
+        <v>10.013999938964844</v>
       </c>
       <c t="n" r="C7">
-        <v>0</v>
+        <v>1.4552532560529658</v>
       </c>
       <c t="n" r="D7">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c t="n" r="E7">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="F7">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:6" r="8">
+      <c t="n" r="B8">
+        <v>15.020999908447266</v>
+      </c>
+      <c t="n" r="C8">
+        <v>2.0490455230282096</v>
+      </c>
+      <c t="n" r="D8">
+        <v>0</v>
+      </c>
+      <c t="n" r="E8">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="F8">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:6" r="9">
+      <c t="n" r="B9">
+        <v>20.024999856948853</v>
+      </c>
+      <c t="n" r="C9">
+        <v>2.6015915356791788</v>
+      </c>
+      <c t="n" r="D9">
+        <v>0</v>
+      </c>
+      <c t="n" r="E9">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="F9">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:6" r="10">
+      <c t="n" r="B10">
+        <v>25.032999992370605</v>
+      </c>
+      <c t="n" r="C10">
+        <v>3.1216525842401648</v>
+      </c>
+      <c t="n" r="D10">
+        <v>0</v>
+      </c>
+      <c t="n" r="E10">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="F10">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:6" r="11">
+      <c t="n" r="B11">
+        <v>30.039999961853027</v>
+      </c>
+      <c t="n" r="C11">
+        <v>3.6136476695203998</v>
+      </c>
+      <c t="n" r="D11">
+        <v>0</v>
+      </c>
+      <c t="n" r="E11">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="F11">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:6" r="12">
+      <c t="n" r="B12">
+        <v>35.04099988937378</v>
+      </c>
+      <c t="n" r="C12">
+        <v>4.0807550146510385</v>
+      </c>
+      <c t="n" r="D12">
+        <v>0</v>
+      </c>
+      <c t="n" r="E12">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="F12">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:6" r="13">
+      <c t="n" r="B13">
+        <v>40.04099988937378</v>
+      </c>
+      <c t="n" r="C13">
+        <v>4.5262327279041648</v>
+      </c>
+      <c t="n" r="D13">
+        <v>0</v>
+      </c>
+      <c t="n" r="E13">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="F13">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row spans="1:6" r="14">
+      <c t="n" r="B14">
+        <v>45.04099988937378</v>
+      </c>
+      <c t="n" r="C14">
+        <v>4.9522529304685978</v>
+      </c>
+      <c t="n" r="D14">
+        <v>0</v>
+      </c>
+      <c t="n" r="E14">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="F14">
         <v>0.35</v>
       </c>
     </row>

--- a/src/dataLoggingTool/dataLogging.xlsx
+++ b/src/dataLoggingTool/dataLogging.xlsx
@@ -1,42 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <s:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
   <s:bookViews>
-    <s:workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <s:workbookView activeTab="0"/>
   </s:bookViews>
   <s:sheets>
-    <s:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dataLoggingTemplate" sheetId="1" r:id="rId1"/>
-    <s:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Log2" sheetId="2" r:id="rId2"/>
+    <s:sheet name="dataLoggingTemplate" sheetId="1" r:id="rId1"/>
+    <s:sheet name="Log2" sheetId="2" r:id="rId2"/>
+    <s:sheet name="Log3" sheetId="3" r:id="rId3"/>
   </s:sheets>
   <s:definedNames/>
-  <s:calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
 </s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve">Date: </t>
   </si>
   <si>
-    <t xml:space="preserve">Date: </t>
+    <t>Tue Jan 19 21:58:55 2016</t>
   </si>
   <si>
     <t>I</t>
   </si>
   <si>
-    <t>OP</t>
+    <t>PV</t>
   </si>
   <si>
-    <t>PV</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>SP</t>
   </si>
   <si>
-    <t>Tue Jan 19 21:58:55 2016</t>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 22:11:58 2016</t>
   </si>
 </sst>
 </file>
@@ -46,16 +49,16 @@
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -370,9 +373,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
@@ -380,227 +384,1089 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="B2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" width="9.10" max="2"/>
-    <col min="3" width="9.10" max="3"/>
-    <col min="4" width="9.10" max="4"/>
-    <col min="5" width="9.10" max="5"/>
-    <col min="6" width="9.10" max="6"/>
+    <col customWidth="1" max="2" min="2" width="9.1"/>
+    <col customWidth="1" max="3" min="3" width="9.1"/>
+    <col customWidth="1" max="4" min="4" width="9.1"/>
+    <col customWidth="1" max="5" min="5" width="9.1"/>
+    <col customWidth="1" max="6" min="6" width="9.1"/>
   </cols>
   <sheetData>
-    <row spans="1:6" r="2">
-      <c t="s" r="B2">
+    <row r="2" spans="1:6">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="C2">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row spans="1:6" r="4">
-      <c t="s" r="B4">
+    <row r="5" spans="1:6">
+      <c r="B5" t="n">
+        <v>0.009999990463256836</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.001623079702109098</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="n">
+        <v>5.008999824523926</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8057030783116591</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>40</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="n">
+        <v>10.01399993896484</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.455253256052966</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>40</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" t="n">
+        <v>15.02099990844727</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.04904552302821</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>40</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="n">
+        <v>20.02499985694885</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.601591535679179</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>40</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" t="n">
+        <v>25.03299999237061</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.121652584240165</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>40</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="n">
+        <v>30.03999996185303</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.6136476695204</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>40</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" t="n">
+        <v>35.04099988937378</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.080755014651039</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>40</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" t="n">
+        <v>40.04099988937378</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.526232727904165</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>40</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" t="n">
+        <v>45.04099988937378</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4.952252930468598</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>40</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="C4">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c t="s" r="D4">
-        <v>0</v>
-      </c>
-      <c t="s" r="E4">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c t="s" r="F4">
-        <v>3</v>
-      </c>
-    </row>
-    <row spans="1:6" r="5">
-      <c t="n" r="B5">
-        <v>0.009999990463256836</v>
-      </c>
-      <c t="n" r="C5">
-        <v>0.001623079702109098</v>
-      </c>
-      <c t="n" r="D5">
-        <v>0</v>
-      </c>
-      <c t="n" r="E5">
-        <v>40.0</v>
-      </c>
-      <c t="n" r="F5">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row spans="1:6" r="6">
-      <c t="n" r="B6">
-        <v>5.008999824523926</v>
-      </c>
-      <c t="n" r="C6">
-        <v>0.8057030783116591</v>
-      </c>
-      <c t="n" r="D6">
-        <v>0</v>
-      </c>
-      <c t="n" r="E6">
-        <v>40.0</v>
-      </c>
-      <c t="n" r="F6">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row spans="1:6" r="7">
-      <c t="n" r="B7">
-        <v>10.013999938964844</v>
-      </c>
-      <c t="n" r="C7">
-        <v>1.4552532560529658</v>
-      </c>
-      <c t="n" r="D7">
-        <v>0</v>
-      </c>
-      <c t="n" r="E7">
-        <v>40.0</v>
-      </c>
-      <c t="n" r="F7">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row spans="1:6" r="8">
-      <c t="n" r="B8">
-        <v>15.020999908447266</v>
-      </c>
-      <c t="n" r="C8">
-        <v>2.0490455230282096</v>
-      </c>
-      <c t="n" r="D8">
-        <v>0</v>
-      </c>
-      <c t="n" r="E8">
-        <v>40.0</v>
-      </c>
-      <c t="n" r="F8">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row spans="1:6" r="9">
-      <c t="n" r="B9">
-        <v>20.024999856948853</v>
-      </c>
-      <c t="n" r="C9">
-        <v>2.6015915356791788</v>
-      </c>
-      <c t="n" r="D9">
-        <v>0</v>
-      </c>
-      <c t="n" r="E9">
-        <v>40.0</v>
-      </c>
-      <c t="n" r="F9">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row spans="1:6" r="10">
-      <c t="n" r="B10">
-        <v>25.032999992370605</v>
-      </c>
-      <c t="n" r="C10">
-        <v>3.1216525842401648</v>
-      </c>
-      <c t="n" r="D10">
-        <v>0</v>
-      </c>
-      <c t="n" r="E10">
-        <v>40.0</v>
-      </c>
-      <c t="n" r="F10">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row spans="1:6" r="11">
-      <c t="n" r="B11">
-        <v>30.039999961853027</v>
-      </c>
-      <c t="n" r="C11">
-        <v>3.6136476695203998</v>
-      </c>
-      <c t="n" r="D11">
-        <v>0</v>
-      </c>
-      <c t="n" r="E11">
-        <v>40.0</v>
-      </c>
-      <c t="n" r="F11">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row spans="1:6" r="12">
-      <c t="n" r="B12">
-        <v>35.04099988937378</v>
-      </c>
-      <c t="n" r="C12">
-        <v>4.0807550146510385</v>
-      </c>
-      <c t="n" r="D12">
-        <v>0</v>
-      </c>
-      <c t="n" r="E12">
-        <v>40.0</v>
-      </c>
-      <c t="n" r="F12">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row spans="1:6" r="13">
-      <c t="n" r="B13">
-        <v>40.04099988937378</v>
-      </c>
-      <c t="n" r="C13">
-        <v>4.5262327279041648</v>
-      </c>
-      <c t="n" r="D13">
-        <v>0</v>
-      </c>
-      <c t="n" r="E13">
-        <v>40.0</v>
-      </c>
-      <c t="n" r="F13">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row spans="1:6" r="14">
-      <c t="n" r="B14">
-        <v>45.04099988937378</v>
-      </c>
-      <c t="n" r="C14">
-        <v>4.9522529304685978</v>
-      </c>
-      <c t="n" r="D14">
-        <v>0</v>
-      </c>
-      <c t="n" r="E14">
-        <v>40.0</v>
-      </c>
-      <c t="n" r="F14">
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="n">
+        <v>0.00261998176574707</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0004637096975761524</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>40</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="n">
+        <v>5.0084388256073</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7940060304857766</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="n">
+        <v>10.0091438293457</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.443725786024239</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>40</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="n">
+        <v>15.0139148235321</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.03790928738434</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>40</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="n">
+        <v>20.01879191398621</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2.591162444642505</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>40</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="n">
+        <v>25.02370882034302</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.111414129724392</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>40</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="n">
+        <v>30.02866291999817</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.603711918155569</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>40</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="n">
+        <v>35.03348684310913</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4.071634507745997</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>40</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="n">
+        <v>40.03833079338074</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4.517890212920172</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>40</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="n">
+        <v>45.04322195053101</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4.944627245964502</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>40</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="n">
+        <v>50.0480477809906</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5.353571304190991</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>40</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="n">
+        <v>55.05293083190918</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5.746175900321465</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>40</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="n">
+        <v>60.05777096748352</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6.123670280758653</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>40</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="n">
+        <v>65.05809092521667</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6.486783946356518</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>40</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="n">
+        <v>70.06294178962708</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6.83711632261104</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>40</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="n">
+        <v>75.06778192520142</v>
+      </c>
+      <c r="B19" t="n">
+        <v>7.175143879449372</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>40</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="n">
+        <v>80.06980681419373</v>
+      </c>
+      <c r="B20" t="n">
+        <v>7.501411241224567</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>40</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="n">
+        <v>85.07458782196045</v>
+      </c>
+      <c r="B21" t="n">
+        <v>7.816936860349688</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>40</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="n">
+        <v>90.07942795753479</v>
+      </c>
+      <c r="B22" t="n">
+        <v>8.122126759750897</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>40</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="n">
+        <v>95.08426880836487</v>
+      </c>
+      <c r="B23" t="n">
+        <v>8.417516761924299</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>40</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="n">
+        <v>100.0890979766846</v>
+      </c>
+      <c r="B24" t="n">
+        <v>8.703594902554492</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>40</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="n">
+        <v>105.0938968658447</v>
+      </c>
+      <c r="B25" t="n">
+        <v>8.98080426288608</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>40</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="n">
+        <v>110.0988078117371</v>
+      </c>
+      <c r="B26" t="n">
+        <v>9.249567526605544</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>40</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="n">
+        <v>115.1023609638214</v>
+      </c>
+      <c r="B27" t="n">
+        <v>9.510188189660449</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>40</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="n">
+        <v>120.1057229042053</v>
+      </c>
+      <c r="B28" t="n">
+        <v>9.763085906988094</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>40</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="n">
+        <v>125.1090409755707</v>
+      </c>
+      <c r="B29" t="n">
+        <v>10.0085972664642</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>40</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="n">
+        <v>130.1123919487</v>
+      </c>
+      <c r="B30" t="n">
+        <v>10.24703278161667</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>40</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="n">
+        <v>135.1157169342041</v>
+      </c>
+      <c r="B31" t="n">
+        <v>10.47867580824672</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>40</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="n">
+        <v>140.1189968585968</v>
+      </c>
+      <c r="B32" t="n">
+        <v>10.70379470648139</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>40</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="n">
+        <v>145.1222529411316</v>
+      </c>
+      <c r="B33" t="n">
+        <v>10.92264440203515</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>40</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="n">
+        <v>150.1256279945374</v>
+      </c>
+      <c r="B34" t="n">
+        <v>11.13546810133595</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>40</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="n">
+        <v>155.1289508342743</v>
+      </c>
+      <c r="B35" t="n">
+        <v>11.34247924779814</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>40</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="n">
+        <v>160.1322908401489</v>
+      </c>
+      <c r="B36" t="n">
+        <v>11.54389389461535</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>40</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="n">
+        <v>165.1356117725372</v>
+      </c>
+      <c r="B37" t="n">
+        <v>11.73991094908167</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>40</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="n">
+        <v>170.1389589309692</v>
+      </c>
+      <c r="B38" t="n">
+        <v>11.93072153750274</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>40</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="n">
+        <v>175.1425149440765</v>
+      </c>
+      <c r="B39" t="n">
+        <v>12.11651231890602</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>40</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="n">
+        <v>180.145605802536</v>
+      </c>
+      <c r="B40" t="n">
+        <v>12.29742983050159</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>40</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="n">
+        <v>185.1490409374237</v>
+      </c>
+      <c r="B41" t="n">
+        <v>12.47366645621921</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="n">
+        <v>190.152370929718</v>
+      </c>
+      <c r="B42" t="n">
+        <v>12.64535859679609</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>40</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="n">
+        <v>195.1556739807129</v>
+      </c>
+      <c r="B43" t="n">
+        <v>12.81265869704068</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>40</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="n">
+        <v>200.1590328216553</v>
+      </c>
+      <c r="B44" t="n">
+        <v>12.9757101132371</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>40</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="n">
+        <v>205.1623618602753</v>
+      </c>
+      <c r="B45" t="n">
+        <v>13.13464427797503</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>40</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="n">
+        <v>210.1656889915466</v>
+      </c>
+      <c r="B46" t="n">
+        <v>13.28959162917084</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>40</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="n">
+        <v>215.1690018177032</v>
+      </c>
+      <c r="B47" t="n">
+        <v>13.44067478113505</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>40</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="n">
+        <v>220.172355890274</v>
+      </c>
+      <c r="B48" t="n">
+        <v>13.5880131900466</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>40</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="n">
+        <v>225.1757168769836</v>
+      </c>
+      <c r="B49" t="n">
+        <v>13.73171886030783</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>40</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="n">
+        <v>230.1792118549347</v>
+      </c>
+      <c r="B50" t="n">
+        <v>13.87190394366289</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>40</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="n">
+        <v>235.1823999881744</v>
+      </c>
+      <c r="B51" t="n">
+        <v>14.0086599712347</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>40</v>
+      </c>
+      <c r="E51" t="n">
         <v>0.35</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>